--- a/database - circanual/percentage offspring/BW-Sire-percentage of offspring by parent birthmonth.xlsx
+++ b/database - circanual/percentage offspring/BW-Sire-percentage of offspring by parent birthmonth.xlsx
@@ -6397,41 +6397,38 @@
       <c r="A143">
         <v>10</v>
       </c>
-      <c r="B143">
-        <v>3.496503496503497</v>
-      </c>
       <c r="C143">
-        <v>11.88811188811189</v>
+        <v>7.017543859649122</v>
       </c>
       <c r="D143">
-        <v>5.594405594405594</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E143">
-        <v>7.692307692307693</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="F143">
-        <v>18.18181818181818</v>
+        <v>18.42105263157895</v>
       </c>
       <c r="G143">
-        <v>8.391608391608392</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H143">
-        <v>5.594405594405594</v>
+        <v>7.017543859649122</v>
       </c>
       <c r="I143">
-        <v>5.594405594405594</v>
+        <v>7.017543859649122</v>
       </c>
       <c r="J143">
-        <v>11.18881118881119</v>
+        <v>14.03508771929824</v>
       </c>
       <c r="K143">
-        <v>9.090909090909092</v>
+        <v>11.40350877192982</v>
       </c>
       <c r="L143">
-        <v>8.391608391608392</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="M143">
-        <v>4.895104895104895</v>
+        <v>6.140350877192982</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -6444,40 +6441,40 @@
         <v>11</v>
       </c>
       <c r="B144">
-        <v>0.6024096385542169</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="C144">
-        <v>6.626506024096386</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D144">
-        <v>1.80722891566265</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="E144">
-        <v>3.012048192771084</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="F144">
-        <v>10.8433734939759</v>
+        <v>10.3030303030303</v>
       </c>
       <c r="G144">
-        <v>15.66265060240964</v>
+        <v>15.75757575757576</v>
       </c>
       <c r="H144">
-        <v>21.68674698795181</v>
+        <v>21.81818181818182</v>
       </c>
       <c r="I144">
-        <v>11.44578313253012</v>
+        <v>11.51515151515152</v>
       </c>
       <c r="J144">
-        <v>6.626506024096386</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="K144">
-        <v>9.036144578313253</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L144">
-        <v>7.228915662650602</v>
+        <v>7.272727272727272</v>
       </c>
       <c r="M144">
-        <v>5.421686746987952</v>
+        <v>5.454545454545454</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -6490,40 +6487,40 @@
         <v>12</v>
       </c>
       <c r="B145">
-        <v>8.571428571428571</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="C145">
-        <v>8.928571428571429</v>
+        <v>8.148148148148149</v>
       </c>
       <c r="D145">
-        <v>4.285714285714286</v>
+        <v>2.962962962962963</v>
       </c>
       <c r="E145">
-        <v>11.07142857142857</v>
+        <v>10.37037037037037</v>
       </c>
       <c r="F145">
-        <v>9.642857142857144</v>
+        <v>10</v>
       </c>
       <c r="G145">
-        <v>9.285714285714286</v>
+        <v>9.62962962962963</v>
       </c>
       <c r="H145">
-        <v>12.5</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="I145">
-        <v>11.42857142857143</v>
+        <v>11.85185185185185</v>
       </c>
       <c r="J145">
-        <v>7.5</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="K145">
-        <v>8.214285714285714</v>
+        <v>8.518518518518519</v>
       </c>
       <c r="L145">
-        <v>4.285714285714286</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="M145">
-        <v>4.285714285714286</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
